--- a/Huggins.xlsx
+++ b/Huggins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27616"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/程序/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/Graduation-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC10485F499C5E865ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11980965-D8AB-4EC3-B82D-2E3EFFF70B18}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC10485F499C5E865ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E5158FA-D0EF-42E7-B976-F366BE5EF48B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="165" yWindow="0" windowWidth="3120" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,9 +225,6 @@
     <t>poly(cyclohexylethylene)</t>
   </si>
   <si>
-    <t>(-0.162 ± 0.013) + (144.4 ± 6.2)T</t>
-  </si>
-  <si>
     <t>10.1021/ma4020164</t>
   </si>
   <si>
@@ -1534,6 +1531,10 @@
   </si>
   <si>
     <t>poly(cyclohexylethylene)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-0.162 ± 0.013) + (144.4 ± 6.2)T</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1736,10 +1737,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2007,7 +2004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="29.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2024,7 +2023,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2042,15 +2041,15 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -2066,10 +2065,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2090,10 +2089,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2114,10 +2113,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2138,10 +2137,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2162,10 +2161,10 @@
         <v>20</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2186,10 +2185,10 @@
         <v>20</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2210,10 +2209,10 @@
         <v>20</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2234,10 +2233,10 @@
         <v>20</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2258,10 +2257,10 @@
         <v>20</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2282,10 +2281,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2304,10 +2303,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2328,10 +2327,10 @@
         <v>29</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2352,10 +2351,10 @@
         <v>31</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2376,10 +2375,10 @@
         <v>31</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2400,10 +2399,10 @@
         <v>31</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2424,10 +2423,10 @@
         <v>31</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2448,10 +2447,10 @@
         <v>31</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2472,10 +2471,10 @@
         <v>31</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2496,10 +2495,10 @@
         <v>34</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2520,10 +2519,10 @@
         <v>34</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2544,10 +2543,10 @@
         <v>34</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2568,10 +2567,10 @@
         <v>34</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2592,10 +2591,10 @@
         <v>34</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2616,10 +2615,10 @@
         <v>34</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2638,10 +2637,10 @@
         <v>38</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2662,10 +2661,10 @@
         <v>41</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2686,10 +2685,10 @@
         <v>45</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2710,10 +2709,10 @@
         <v>47</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2734,10 +2733,10 @@
         <v>47</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2758,10 +2757,10 @@
         <v>47</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2782,10 +2781,10 @@
         <v>47</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2806,10 +2805,10 @@
         <v>47</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2830,10 +2829,10 @@
         <v>55</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2854,10 +2853,10 @@
         <v>59</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2878,10 +2877,10 @@
         <v>61</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2902,56 +2901,56 @@
         <v>64</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>66</v>
+        <v>464</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="H38" s="18" t="s">
         <v>411</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="G39" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2959,7 +2958,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2967,13 +2966,13 @@
         <v>378.15</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2981,7 +2980,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="7">
         <v>1.4990000000000001</v>
@@ -2991,21 +2990,21 @@
         <v>313</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="10">
         <v>1.512</v>
@@ -3015,18 +3014,18 @@
         <v>313</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>9</v>
@@ -3039,21 +3038,21 @@
         <v>293</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="10">
         <v>0.13</v>
@@ -3063,13 +3062,13 @@
         <v>293</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3077,7 +3076,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="7">
         <v>7.0000000000000007E-2</v>
@@ -3087,253 +3086,253 @@
         <v>293</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="10">
         <v>293.14999999999998</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="C47" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="7">
         <v>293.14999999999998</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="C48" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="10">
         <v>293.14999999999998</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="C49" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="7">
         <v>293.14999999999998</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="G50" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="G51" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="10">
         <v>320</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="C53" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="7">
         <v>320</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="C54" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="10">
         <v>320</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="C55" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="7">
         <v>320</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3341,7 +3340,7 @@
         <v>15</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="10">
         <v>0.43</v>
@@ -3349,13 +3348,13 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3363,7 +3362,7 @@
         <v>15</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="7">
         <v>0.48</v>
@@ -3371,13 +3370,13 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3388,20 +3387,20 @@
         <v>14</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="10">
         <v>373.15</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3409,19 +3408,19 @@
         <v>26</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3432,20 +3431,20 @@
         <v>32</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="G60" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3463,13 +3462,13 @@
         <v>313.14999999999998</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3477,7 +3476,7 @@
         <v>26</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="10">
         <v>0.22600000000000001</v>
@@ -3487,75 +3486,75 @@
         <v>313.14999999999998</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3563,7 +3562,7 @@
         <v>26</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="10">
         <v>5.89</v>
@@ -3573,61 +3572,61 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="G67" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="10">
         <v>327.14999999999998</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3645,57 +3644,57 @@
         <v>428.15</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3703,21 +3702,21 @@
         <v>26</v>
       </c>
       <c r="B72" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3728,23 +3727,23 @@
         <v>36</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>14</v>
@@ -3755,13 +3754,13 @@
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3777,37 +3776,37 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="10">
         <v>413.15</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3818,20 +3817,20 @@
         <v>36</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="G77" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3842,49 +3841,49 @@
         <v>36</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>26</v>
@@ -3897,21 +3896,21 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="7">
         <v>0.28699999999999998</v>
@@ -3921,18 +3920,18 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>26</v>
@@ -3945,18 +3944,18 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>36</v>
@@ -3969,21 +3968,21 @@
         <v>433.15</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -3991,13 +3990,13 @@
         <v>298</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4005,21 +4004,21 @@
         <v>26</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4035,13 +4034,13 @@
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4052,20 +4051,20 @@
         <v>32</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F87" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F87" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="G87" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4083,13 +4082,13 @@
         <v>393.15</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4100,20 +4099,20 @@
         <v>15</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F89" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F89" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="G89" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4124,20 +4123,20 @@
         <v>15</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F90" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F90" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="G90" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="H90" s="18" t="s">
         <v>402</v>
-      </c>
-      <c r="H90" s="18" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4148,18 +4147,18 @@
         <v>5</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4170,40 +4169,40 @@
         <v>5</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4214,18 +4213,18 @@
         <v>32</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4233,43 +4232,43 @@
         <v>26</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4280,26 +4279,26 @@
         <v>36</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="C98" s="10">
         <v>0.39400000000000002</v>
@@ -4307,13 +4306,13 @@
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4321,21 +4320,21 @@
         <v>26</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4353,13 +4352,13 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4377,18 +4376,18 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>36</v>
@@ -4401,18 +4400,18 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>26</v>
@@ -4425,18 +4424,18 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>36</v>
@@ -4449,18 +4448,18 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>26</v>
@@ -4473,18 +4472,18 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>36</v>
@@ -4497,18 +4496,18 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>26</v>
@@ -4521,13 +4520,13 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4545,13 +4544,13 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H108" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4559,7 +4558,7 @@
         <v>26</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109" s="7">
         <v>3.4000000000000002E-2</v>
@@ -4569,13 +4568,13 @@
         <v>423.15</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4583,7 +4582,7 @@
         <v>36</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C110" s="10">
         <v>-7.0000000000000007E-2</v>
@@ -4593,13 +4592,13 @@
         <v>473</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4610,18 +4609,18 @@
         <v>26</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4632,18 +4631,18 @@
         <v>26</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4661,13 +4660,13 @@
         <v>413.15</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H113" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4675,109 +4674,109 @@
         <v>23</v>
       </c>
       <c r="B114" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H114" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="C115" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H118" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4785,7 +4784,7 @@
         <v>26</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C119" s="7">
         <v>8.6999999999999994E-2</v>
@@ -4795,13 +4794,13 @@
         <v>503.15</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4809,7 +4808,7 @@
         <v>48</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C120" s="10">
         <v>0.505</v>
@@ -4817,13 +4816,13 @@
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4831,7 +4830,7 @@
         <v>48</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C121" s="7">
         <v>0.88500000000000001</v>
@@ -4839,35 +4838,35 @@
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B122" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4875,7 +4874,7 @@
         <v>48</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C123" s="7">
         <v>3.4</v>
@@ -4883,21 +4882,21 @@
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C124" s="10">
         <v>3.7</v>
@@ -4905,21 +4904,21 @@
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H124" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C125" s="7">
         <v>1.9</v>
@@ -4927,13 +4926,13 @@
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4941,7 +4940,7 @@
         <v>42</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C126" s="10">
         <v>1.0569999999999999</v>
@@ -4951,13 +4950,13 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4965,7 +4964,7 @@
         <v>42</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C127" s="7">
         <v>0.34</v>
@@ -4975,13 +4974,13 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4999,21 +4998,21 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C129" s="7">
         <v>0.49</v>
@@ -5023,21 +5022,21 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C130" s="10">
         <v>1.766</v>
@@ -5047,18 +5046,18 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H130" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>14</v>
@@ -5071,21 +5070,21 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H131" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C132" s="10">
         <v>0.54200000000000004</v>
@@ -5095,21 +5094,21 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C133" s="7">
         <v>2.1469999999999998</v>
@@ -5119,18 +5118,18 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>14</v>
@@ -5143,13 +5142,13 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5160,18 +5159,18 @@
         <v>15</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G135" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="H135" s="18" t="s">
         <v>402</v>
-      </c>
-      <c r="H135" s="18" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5187,13 +5186,13 @@
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5201,21 +5200,21 @@
         <v>26</v>
       </c>
       <c r="B137" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C137" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5226,18 +5225,18 @@
         <v>26</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5248,40 +5247,40 @@
         <v>36</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G140" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5292,20 +5291,20 @@
         <v>32</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="7">
         <v>180</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5316,18 +5315,18 @@
         <v>5</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5335,23 +5334,23 @@
         <v>26</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="7">
         <v>433.15</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5359,43 +5358,43 @@
         <v>26</v>
       </c>
       <c r="B144" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C144" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5406,18 +5405,18 @@
         <v>36</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
       <c r="F146" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H146" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5425,23 +5424,23 @@
         <v>35</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="F147" s="9" t="s">
-        <v>245</v>
-      </c>
       <c r="G147" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5449,21 +5448,21 @@
         <v>26</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5479,13 +5478,13 @@
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5501,13 +5500,13 @@
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H150" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5518,20 +5517,20 @@
         <v>14</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="7">
         <v>298.14999999999998</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H151" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5539,7 +5538,7 @@
         <v>26</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C152" s="10">
         <v>0.19700000000000001</v>
@@ -5549,18 +5548,18 @@
         <v>301.14999999999998</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H152" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>5</v>
@@ -5573,13 +5572,13 @@
         <v>463.15</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5597,21 +5596,21 @@
         <v>463.15</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="C155" s="7">
         <v>0.45</v>
@@ -5619,13 +5618,13 @@
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5633,21 +5632,21 @@
         <v>14</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
       <c r="F156" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5663,13 +5662,13 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5683,13 +5682,13 @@
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5697,21 +5696,21 @@
         <v>26</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5719,43 +5718,43 @@
         <v>26</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
       <c r="F160" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5763,43 +5762,43 @@
         <v>26</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
       <c r="F162" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G163" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5810,40 +5809,40 @@
         <v>36</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
       <c r="F164" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G164" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H164" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="C165" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5861,18 +5860,18 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G166" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>19</v>
@@ -5885,13 +5884,13 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5899,7 +5898,7 @@
         <v>5</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C168" s="10">
         <v>0.72</v>
@@ -5909,21 +5908,21 @@
         <v>298.14999999999998</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C169" s="7">
         <v>2.8299999999999999E-2</v>
@@ -5933,13 +5932,13 @@
         <v>373.15</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G169" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H169" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5947,7 +5946,7 @@
         <v>57</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C170" s="10">
         <v>1.1599999999999999E-2</v>
@@ -5957,18 +5956,18 @@
         <v>373.15</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>57</v>
@@ -5981,13 +5980,13 @@
         <v>373.15</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H171" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5998,18 +5997,18 @@
         <v>32</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G172" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H172" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6025,35 +6024,35 @@
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="F173" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G173" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H173" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B174" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
       <c r="F174" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G174" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6064,20 +6063,20 @@
         <v>36</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D175" s="8"/>
       <c r="E175" s="7">
         <v>295.14999999999998</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G175" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6085,23 +6084,23 @@
         <v>26</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="10">
         <v>433.15</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G176" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6109,23 +6108,23 @@
         <v>26</v>
       </c>
       <c r="B177" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="D177" s="8"/>
       <c r="E177" s="7">
         <v>523.15</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G177" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H177" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6133,7 +6132,7 @@
         <v>26</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C178" s="10">
         <v>9.9000000000000005E-2</v>
@@ -6141,13 +6140,13 @@
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
       <c r="F178" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G178" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6163,13 +6162,13 @@
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G179" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="H179" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="H179" s="18" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6177,7 +6176,7 @@
         <v>26</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C180" s="10">
         <v>0.09</v>
@@ -6185,13 +6184,13 @@
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
       <c r="F180" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G180" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H180" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6199,23 +6198,23 @@
         <v>26</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D181" s="8"/>
       <c r="E181" s="7">
         <v>393.15</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G181" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H181" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6226,18 +6225,18 @@
         <v>30</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
       <c r="F182" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G182" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H182" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6245,50 +6244,50 @@
         <v>26</v>
       </c>
       <c r="B183" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G183" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C184" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F184" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F184" s="12" t="s">
-        <v>300</v>
-      </c>
       <c r="G184" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>14</v>
@@ -6299,13 +6298,13 @@
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G185" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H185" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6313,21 +6312,21 @@
         <v>65</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G186" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H186" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6335,21 +6334,21 @@
         <v>65</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
       <c r="F187" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G187" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H187" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6360,18 +6359,18 @@
         <v>57</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
       <c r="F188" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G188" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H188" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6379,7 +6378,7 @@
         <v>26</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C189" s="7">
         <v>0.68</v>
@@ -6389,13 +6388,13 @@
         <v>297.14999999999998</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G189" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H189" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6403,7 +6402,7 @@
         <v>26</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C190" s="10">
         <v>0.73</v>
@@ -6413,13 +6412,13 @@
         <v>275.14999999999998</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G190" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H190" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6427,7 +6426,7 @@
         <v>36</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C191" s="7">
         <v>0.32</v>
@@ -6437,13 +6436,13 @@
         <v>297.14999999999998</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G191" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H191" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6451,7 +6450,7 @@
         <v>36</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C192" s="10">
         <v>0.35</v>
@@ -6461,13 +6460,13 @@
         <v>275.14999999999998</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G192" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H192" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6475,21 +6474,21 @@
         <v>26</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
       <c r="F193" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G193" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H193" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6505,13 +6504,13 @@
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
       <c r="F194" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G194" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H194" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6519,21 +6518,21 @@
         <v>26</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G195" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H195" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6544,18 +6543,18 @@
         <v>15</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
       <c r="F196" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G196" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H196" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6566,18 +6565,18 @@
         <v>36</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
       <c r="F197" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G197" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H197" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6588,18 +6587,18 @@
         <v>5</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
       <c r="F198" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G198" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H198" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6610,18 +6609,18 @@
         <v>32</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="F199" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G199" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H199" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6629,21 +6628,21 @@
         <v>57</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
       <c r="F200" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G200" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H200" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6651,7 +6650,7 @@
         <v>26</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C201" s="7">
         <v>7.0000000000000007E-2</v>
@@ -6659,13 +6658,13 @@
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
       <c r="F201" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G201" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6683,13 +6682,13 @@
         <v>393.15</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G202" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6697,7 +6696,7 @@
         <v>36</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C203" s="7">
         <v>-7.0000000000000007E-2</v>
@@ -6705,13 +6704,13 @@
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
       <c r="F203" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G203" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6719,23 +6718,23 @@
         <v>26</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D204" s="11"/>
       <c r="E204" s="10">
         <v>433.15</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G204" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6743,21 +6742,21 @@
         <v>26</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
       <c r="F205" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G205" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6765,21 +6764,21 @@
         <v>26</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
       <c r="F206" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G206" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6795,13 +6794,13 @@
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
       <c r="F207" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G207" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6812,18 +6811,18 @@
         <v>32</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
       <c r="F208" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G208" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H208" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6834,20 +6833,20 @@
         <v>15</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D209" s="8"/>
       <c r="E209" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G209" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6858,18 +6857,18 @@
         <v>15</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
       <c r="F210" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G210" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6880,28 +6879,28 @@
         <v>30</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D211" s="8"/>
       <c r="E211" s="7">
         <v>298</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G211" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -6909,38 +6908,38 @@
         <v>440.15</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G212" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
       <c r="F213" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G213" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B214" s="10" t="s">
         <v>62</v>
@@ -6953,13 +6952,13 @@
         <v>463.15</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G214" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H214" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6967,7 +6966,7 @@
         <v>26</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C215" s="7">
         <v>0.72</v>
@@ -6975,13 +6974,13 @@
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
       <c r="F215" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G215" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H215" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6989,7 +6988,7 @@
         <v>26</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C216" s="10">
         <v>0.28000000000000003</v>
@@ -6997,13 +6996,13 @@
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
       <c r="F216" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G216" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H216" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7011,7 +7010,7 @@
         <v>26</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C217" s="7">
         <v>0.33</v>
@@ -7021,13 +7020,13 @@
         <v>338.15</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G217" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H217" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7035,7 +7034,7 @@
         <v>26</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C218" s="10">
         <v>0.35</v>
@@ -7045,13 +7044,13 @@
         <v>338.15</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G218" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H218" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7059,7 +7058,7 @@
         <v>26</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C219" s="7">
         <v>0.38</v>
@@ -7069,13 +7068,13 @@
         <v>338.15</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G219" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H219" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7083,7 +7082,7 @@
         <v>5</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C220" s="10">
         <v>2.0299999999999998</v>
@@ -7091,13 +7090,13 @@
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
       <c r="F220" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G220" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H220" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7105,7 +7104,7 @@
         <v>5</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C221" s="7">
         <v>3.18</v>
@@ -7113,13 +7112,13 @@
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
       <c r="F221" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G221" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7127,7 +7126,7 @@
         <v>5</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C222" s="10">
         <v>2.37</v>
@@ -7137,13 +7136,13 @@
         <v>338.15</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G222" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H222" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7151,7 +7150,7 @@
         <v>5</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C223" s="7">
         <v>2.4500000000000002</v>
@@ -7161,13 +7160,13 @@
         <v>338.15</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G223" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H223" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7175,7 +7174,7 @@
         <v>5</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C224" s="10">
         <v>2.38</v>
@@ -7185,13 +7184,13 @@
         <v>338.15</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G224" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H224" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7209,13 +7208,13 @@
         <v>338.15</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G225" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H225" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7223,7 +7222,7 @@
         <v>26</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C226" s="10">
         <v>0.03</v>
@@ -7231,13 +7230,13 @@
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
       <c r="F226" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G226" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H226" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7245,7 +7244,7 @@
         <v>26</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C227" s="7">
         <v>0.22</v>
@@ -7253,13 +7252,13 @@
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
       <c r="F227" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G227" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7277,13 +7276,13 @@
         <v>338.15</v>
       </c>
       <c r="F228" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G228" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H228" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7291,7 +7290,7 @@
         <v>5</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C229" s="7">
         <v>0.37</v>
@@ -7299,13 +7298,13 @@
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
       <c r="F229" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G229" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H229" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7313,7 +7312,7 @@
         <v>5</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C230" s="10">
         <v>1.02</v>
@@ -7321,13 +7320,13 @@
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
       <c r="F230" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G230" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H230" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7335,7 +7334,7 @@
         <v>5</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C231" s="7">
         <v>2.19</v>
@@ -7343,13 +7342,13 @@
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
       <c r="F231" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G231" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7357,23 +7356,23 @@
         <v>26</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D232" s="11"/>
       <c r="E232" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F232" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="F232" s="12" t="s">
-        <v>353</v>
-      </c>
       <c r="G232" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7384,26 +7383,26 @@
         <v>30</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
       <c r="F233" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G233" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H233" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C234" s="10">
         <v>3.78</v>
@@ -7413,21 +7412,21 @@
         <v>303.14999999999998</v>
       </c>
       <c r="F234" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G234" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C235" s="7">
         <v>1.84</v>
@@ -7437,21 +7436,21 @@
         <v>303.14999999999998</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G235" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C236" s="10">
         <v>3.04</v>
@@ -7461,21 +7460,21 @@
         <v>303.14999999999998</v>
       </c>
       <c r="F236" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G236" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C237" s="7">
         <v>5.57</v>
@@ -7485,18 +7484,18 @@
         <v>303.14999999999998</v>
       </c>
       <c r="F237" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G237" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B238" s="10" t="s">
         <v>5</v>
@@ -7509,13 +7508,13 @@
         <v>463.15</v>
       </c>
       <c r="F238" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G238" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H238" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7523,7 +7522,7 @@
         <v>26</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C239" s="7">
         <v>0.03</v>
@@ -7531,13 +7530,13 @@
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
       <c r="F239" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G239" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H239" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7545,7 +7544,7 @@
         <v>26</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C240" s="10">
         <v>8.6999999999999994E-2</v>
@@ -7555,21 +7554,21 @@
         <v>503.15</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G240" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C241" s="7">
         <v>1.2999999999999999E-2</v>
@@ -7579,13 +7578,13 @@
         <v>503.15</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G241" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H241" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7593,21 +7592,21 @@
         <v>26</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
       <c r="F242" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G242" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H242" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7618,18 +7617,18 @@
         <v>48</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
       <c r="F243" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G243" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H243" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7640,64 +7639,64 @@
         <v>48</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
       <c r="F244" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G244" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H244" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D245" s="8"/>
       <c r="E245" s="7">
         <v>423.15</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G245" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H245" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B246" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
       <c r="F246" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G246" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H246" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7705,67 +7704,67 @@
         <v>26</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D247" s="8"/>
       <c r="E247" s="7">
         <v>423.15</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G247" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B248" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
       <c r="F248" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G248" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H248" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D249" s="8"/>
       <c r="E249" s="8"/>
       <c r="F249" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G249" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H249" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7781,13 +7780,13 @@
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
       <c r="F250" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G250" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H250" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7795,7 +7794,7 @@
         <v>26</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C251" s="7">
         <v>0.35</v>
@@ -7803,18 +7802,18 @@
       <c r="D251" s="8"/>
       <c r="E251" s="8"/>
       <c r="F251" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G251" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B252" s="10" t="s">
         <v>48</v>
@@ -7825,21 +7824,21 @@
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
       <c r="F252" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G252" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H252" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C253" s="7">
         <v>1.01</v>
@@ -7847,18 +7846,18 @@
       <c r="D253" s="8"/>
       <c r="E253" s="8"/>
       <c r="F253" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G253" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H253" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B254" s="10" t="s">
         <v>26</v>
@@ -7869,13 +7868,13 @@
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
       <c r="F254" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G254" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7891,13 +7890,13 @@
       <c r="D255" s="8"/>
       <c r="E255" s="8"/>
       <c r="F255" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G255" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H255" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7905,7 +7904,7 @@
         <v>26</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C256" s="10">
         <v>0.438</v>
@@ -7913,13 +7912,13 @@
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
       <c r="F256" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G256" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H256" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7927,7 +7926,7 @@
         <v>26</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C257" s="7">
         <v>0.432</v>
@@ -7935,21 +7934,21 @@
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
       <c r="F257" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G257" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B258" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="B258" s="10" t="s">
-        <v>382</v>
       </c>
       <c r="C258" s="10">
         <v>3.5</v>
@@ -7957,21 +7956,21 @@
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
       <c r="F258" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G258" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H258" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C259" s="7">
         <v>8.5</v>
@@ -7979,21 +7978,21 @@
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
       <c r="F259" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G259" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H259" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C260" s="10">
         <v>3</v>
@@ -8001,21 +8000,21 @@
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
       <c r="F260" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G260" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H260" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C261" s="7">
         <v>10.6</v>
@@ -8023,13 +8022,13 @@
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
       <c r="F261" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G261" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H261" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8040,18 +8039,18 @@
         <v>5</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
       <c r="F262" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G262" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H262" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8062,18 +8061,18 @@
         <v>5</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D263" s="8"/>
       <c r="E263" s="8"/>
       <c r="F263" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G263" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H263" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -8084,18 +8083,18 @@
         <v>5</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D264" s="16"/>
       <c r="E264" s="16"/>
       <c r="F264" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G264" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H264" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
